--- a/Base/Teams/Titans/Players Stats.xlsx
+++ b/Base/Teams/Titans/Players Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Titans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F130A9-703E-4B89-8BF3-9D3B3C2230AB}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B36139-0C74-4C9E-B083-3FD4F0C7A2F5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>L.Woodside</t>
-  </si>
-  <si>
-    <t>M.Sargent</t>
   </si>
   <si>
     <t>K.Blasingame</t>
@@ -698,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +833,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -868,7 +865,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -927,38 +924,6 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1011,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1078,7 +1043,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1110,7 +1075,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1142,7 +1107,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1206,7 +1171,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1238,7 +1203,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1270,7 +1235,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1302,7 +1267,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1334,7 +1299,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1509,7 +1474,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1541,7 +1506,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1614,7 +1579,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>

--- a/Base/Teams/Titans/Players Stats.xlsx
+++ b/Base/Teams/Titans/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Titans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B36139-0C74-4C9E-B083-3FD4F0C7A2F5}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F03B38D-0139-4216-AA7B-B393B5BF14F8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>C.Rogers</t>
   </si>
   <si>
-    <t>R.McCath</t>
-  </si>
-  <si>
     <t>M.Kinsey</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>C.Hollister</t>
+  </si>
+  <si>
+    <t>R.McMath</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +865,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
